--- a/output/profiles.xlsx
+++ b/output/profiles.xlsx
@@ -889,22 +889,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dr. Shwetali Kunal Dhole</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Dr. Shwetali Kunal Dhole is a General Surgeon, Proctologist, Laparoscopic Surgeon, Vascular Surgeon and a Laser Specialist in Mumbai and has an experience of 12+ years as a medical practitioner. He completed MBBS from Rajiv Gandhi Medical College, Thane in 2010 and MS - General ... Surgery from GGMC &amp; J J Hospital, Mumbai in 2015. She have Hands-on experience in performing GI Surgical Operations and other laparoscopic procedures. Establishing trust with patients by using collaborative communication during consultations and throughout surgical care. She is fluent in English, Hindi, and provides compassionate care for all her patients to ensure complete recovery. She has been commended by her patients for her caring nature, hard working attitude, and willingness to be there for them - any time of day and night. She provides treatment for the following - Piles, Fissure, Fistula, Abscess, Pilonidal Sinus, Urethral Stricture, Erectile Dysfunction, Urinary Tract Infection, Urinary Incontinence, Balnitis, Phimosis, Paraphimosis, General Uro, Umbilical Hernia, Inguinal Hernia, Incisional Hernia, Hiatus, Gallstones, Bariatrics, Stent Removal, Cyst Removal, Hydrocele, and several other conditions. She is registered in the Indian Medical Registry with the license number 2010040935. She strives to provide advanced medical care in a comfortable and holistic environment for all patients coming to her for treatment.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Maharashtra Medical Council, Mumbai 2010040935</t>
-        </is>
-      </c>
+          <t>When you need answers, Best Doctors can help</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['MBBS, Rajiv Gandhi Medical College, Thane , 2010', 'MS - General Surgery, GGMC &amp; J J Hospital, Mumbai, 2015']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -15601,11 +15593,19 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr"/>
+          <t>Dr. Varun Gogia</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Dr. Varun Gogia had done AIIMS throughout ( MBBS, MD, Senior Registrar) Specialty: Vitreoretina, cataract, uveitis, ROP, micro-vitrectomy systems. Awards: best Junior Resident Award at Dr. Rajendra Prasad Centre for Ophthalmic Sciences, AIIMS, topped the competitive MD exam at RPC. Indian Journal of Ophthalmology Silver award 2016 for ... his study in posterior uveitis. Pioneer: Surgical innovations related to uveal melanoma, endo-illuminator assisted scleral buckling surgery for retinal detachment and has been instrumental in discovering new frontiers of treatment for serpiginious choroiditis. Publications: more than 60 national and international scientific research publications to his credit. Conferences: attended and presented his scientific research at more than 20 national and international conferences. Experience: Before Pristyn care, he had headed the retina division of Medanta Hospital.</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Delhi Medical CouncilDMC/R/4624</t>
+        </is>
+      </c>
       <c r="E475" t="inlineStr">
         <is>
           <t>[]</t>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Delhi', 'Squint Treatment in Delhi', 'Lasik Eye Treatment in Delhi', 'Cataract Surgery  in Delhi']</t>
         </is>
       </c>
     </row>
@@ -15657,19 +15657,27 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr"/>
+          <t>Dr. Chanchal Gadodiya</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Dr. Chanchal Gadodiya is an expert and experienced Ophthalmologist and Eye Surgeon with an experience of 11+ years, and specialises in Ophthalmology. She graduated and obtained her MBBS degree from B J Medical College, Pune. (Maharashtra Universities of health and Sciences) in 2013, and then ... her postgraduate MS degree from B J Medical College, Pune. (Maharashtra Universities of health and Sciences) in 2016.Currently, she is practicing at Pristyn Care Clinic in Pune. She is fluent in English and Hindi and provides compassionate care for all her patients to ensure complete recovery. She has been commended by her patients for her caring nature, hard working attitude, and willingness to be there for them - any time of day and night.She provides treatment for the following - Ophthalmology, Indian Monofocal Cataract, Indian Multifocal Cataract, Foreign Monofocal Cataract, Foreign Multifocal Cataract, Squint, Trifocal Indian Cataract, Trifocal Foreign Cataract, Monofocal Indian Toric Cataract, Monofocal Foreign Toric Cataract, Multifocal Indian Toric Cataract, Multifocal Foreign Toric Cataract, Trifocal Indian Toric Cataract, Trifocal Foreign Toric Cataract, C3R, Pterygium, and other conditions. She is registered in the Indian Medical Registry with the license number 2013051627. She strives to provide advanced medical care in a comfortable and holistic environment for all patients coming to her for treatment.</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Maharashtra Medical Council 2013051627</t>
+        </is>
+      </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, B J Medical College, Pune, 2013', 'MS - Ophthalmology, B Y L Nair Hospital, Mumbai, 2016', 'DNB, National Board of Examination, Delhi, 2017']</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Pune', 'Squint Treatment in Pune', 'Lasik Eye Treatment in Pune', 'Cataract Surgery  in Pune']</t>
         </is>
       </c>
     </row>
@@ -15817,11 +15825,19 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr"/>
+          <t>Dr. Akanksha Thakkar</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Dr. Akanksha Batra is a Ophthalmologist / Eye Surgeon in Dattawadi, Pune and has an experience of 10 years as a medical practitioner. Dr. Akanksha Batra practices at Pristyn Care Clinic in Dattawadi, Pune.</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Maharashtra Medical Council 2016/08/3660</t>
+        </is>
+      </c>
       <c r="E483" t="inlineStr">
         <is>
           <t>[]</t>
@@ -15829,7 +15845,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Pune', 'Squint Treatment in Pune', 'Lasik Eye Treatment in Pune', 'Cataract Surgery  in Pune']</t>
         </is>
       </c>
     </row>
@@ -15841,27 +15857,19 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Dr. Piyush Kapur</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Dr. Piyush Kapur is a highly regarded expert in Ophthalmology, known for his skill in Phacoemulsification and Refractive surgeries. With years of experience, he performs an impressive 5,000 to 6,000 procedures each year, including advanced treatments like Toric IOLs, Multifocal IOLs, ICL/IPCL, LASIK, and PRK. ... His extensive expertise has earned him a strong reputation in the fields of Cataract and Refractive care. In addition to his work with adult patients, Dr. Kapur has a special fellowship in Paediatric Ophthalmology, which gives him valuable insights into treating squint conditions in both children and adults. His vast experience spans Cataract surgery, Refractive treatments, Squint, Glaucoma, and Neuroophthalmology, making him a trusted authority in these areas. Dr. Kapur’s commitment to patient care has been evident throughout his career, including his role as a Consultant in the Department of Ophthalmology at Sir Ganga Ram Hospital in New Delhi from 2005 to 2009. He now serves as the Chairman and Managing Director of The Healing Touch Super Specialty Eye Center, a state-of-the-art facility equipped with the latest medical technologies. His clinic caters to a wide range of patients, including more than 25 public sector undertakings (PSUs) and several third-party administrators (TPAs) and insurance companies. A recognised leader in his field, Dr. Kapur has been invited to share his knowledge and expertise at national and international conferences. He has been a faculty member for prestigious organisations such as AMO, ALCON, ALLERGAN, and SUN PHARMA since 2002, further cementing his standing as a respected figure in Ophthalmology.</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>Delhi Medical CouncilDMC 24021</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>['MBBS, G.R. Medical College, Gwalior, 1997', 'DNB ophthalmology, National Board of Examinations (Sir Ganga Ram Hospital, New Delhi), 2002']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>['Glaucoma Treatment in Delhi', 'Squint Treatment in Delhi', 'Lasik Eye Treatment in Delhi', 'Cataract Surgery  in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -15873,19 +15881,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Dr. Varun Gogia</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>Dr. Varun Gogia had done AIIMS throughout ( MBBS, MD, Senior Registrar) Specialty: Vitreoretina, cataract, uveitis, ROP, micro-vitrectomy systems. Awards: best Junior Resident Award at Dr. Rajendra Prasad Centre for Ophthalmic Sciences, AIIMS, topped the competitive MD exam at RPC. Indian Journal of Ophthalmology Silver award 2016 for ... his study in posterior uveitis. Pioneer: Surgical innovations related to uveal melanoma, endo-illuminator assisted scleral buckling surgery for retinal detachment and has been instrumental in discovering new frontiers of treatment for serpiginious choroiditis. Publications: more than 60 national and international scientific research publications to his credit. Conferences: attended and presented his scientific research at more than 20 national and international conferences. Experience: Before Pristyn care, he had headed the retina division of Medanta Hospital.</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr">
-        <is>
-          <t>Delhi Medical CouncilDMC/R/4624</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr"/>
+      <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
           <t>[]</t>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>['Glaucoma Treatment in Delhi', 'Squint Treatment in Delhi', 'Lasik Eye Treatment in Delhi', 'Cataract Surgery  in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -15905,19 +15905,27 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr"/>
+          <t>Dr. Prerana Tripathi</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Dr. Prerana Tripathi is a Ophthalmologist/ Eye Surgeon in Malleswaram, Bangalore and has an experience of 15+ years as a medical practitioner. Dr. Prerana Tripathi practices at Pristyn Care in Malleswaram, Bangalore. She completed MBBS from Rajiv Gandhi University of Health Sciences in 2009, DO ... from Madurai Medical College in 2015 and DNB - Ophthalmology from National Board of Education, New Delhi in 2017. Some of the services provided by the doctor are: Nystagmus, Laser Procedures for Retina, Eye Infection, Stringy Eye Discharge and Entropion etc.</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Karnataka Medical Council 86755</t>
+        </is>
+      </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Rajiv Gandhi University of Health Sciences, Karnataka, 2009', 'Diploma in Ophthalmology, The Tamil Nadu Dr. MGR Medical University, Chennai, 2015', 'DNB, National Board of Examinations , 2018']</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Bangalore', 'Squint Treatment in Bangalore', 'Lasik Eye Treatment in Bangalore', 'Cataract Surgery  in Bangalore']</t>
         </is>
       </c>
     </row>
@@ -15953,27 +15961,19 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Dr. Piyush Kapur</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>Dr. Piyush Kapur is a highly regarded expert in Ophthalmology, known for his skill in Phacoemulsification and Refractive surgeries. With years of experience, he performs an impressive 5,000 to 6,000 procedures each year, including advanced treatments like Toric IOLs, Multifocal IOLs, ICL/IPCL, LASIK, and PRK. ... His extensive expertise has earned him a strong reputation in the fields of Cataract and Refractive care. In addition to his work with adult patients, Dr. Kapur has a special fellowship in Paediatric Ophthalmology, which gives him valuable insights into treating squint conditions in both children and adults. His vast experience spans Cataract surgery, Refractive treatments, Squint, Glaucoma, and Neuroophthalmology, making him a trusted authority in these areas. Dr. Kapur’s commitment to patient care has been evident throughout his career, including his role as a Consultant in the Department of Ophthalmology at Sir Ganga Ram Hospital in New Delhi from 2005 to 2009. He now serves as the Chairman and Managing Director of The Healing Touch Super Specialty Eye Center, a state-of-the-art facility equipped with the latest medical technologies. His clinic caters to a wide range of patients, including more than 25 public sector undertakings (PSUs) and several third-party administrators (TPAs) and insurance companies. A recognised leader in his field, Dr. Kapur has been invited to share his knowledge and expertise at national and international conferences. He has been a faculty member for prestigious organisations such as AMO, ALCON, ALLERGAN, and SUN PHARMA since 2002, further cementing his standing as a respected figure in Ophthalmology.</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>Delhi Medical CouncilDMC 24021</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>['MBBS, G.R. Medical College, Gwalior, 1997', 'DNB ophthalmology, National Board of Examinations (Sir Ganga Ram Hospital, New Delhi), 2002']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>['Glaucoma Treatment in Delhi', 'Squint Treatment in Delhi', 'Lasik Eye Treatment in Delhi', 'Cataract Surgery  in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16017,27 +16017,19 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Dr. Prerana Tripathi</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>Dr. Prerana Tripathi is a Ophthalmologist/ Eye Surgeon in Malleswaram, Bangalore and has an experience of 15+ years as a medical practitioner. Dr. Prerana Tripathi practices at Pristyn Care in Malleswaram, Bangalore. She completed MBBS from Rajiv Gandhi University of Health Sciences in 2009, DO ... from Madurai Medical College in 2015 and DNB - Ophthalmology from National Board of Education, New Delhi in 2017. Some of the services provided by the doctor are: Nystagmus, Laser Procedures for Retina, Eye Infection, Stringy Eye Discharge and Entropion etc.</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>Karnataka Medical Council 86755</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>['MBBS, Rajiv Gandhi University of Health Sciences, Karnataka, 2009', 'Diploma in Ophthalmology, The Tamil Nadu Dr. MGR Medical University, Chennai, 2015', 'DNB, National Board of Examinations , 2018']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>['Glaucoma Treatment in Bangalore', 'Squint Treatment in Bangalore', 'Lasik Eye Treatment in Bangalore', 'Cataract Surgery  in Bangalore']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16105,11 +16097,19 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+          <t>Dr. Varun Gogia</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Dr. Varun Gogia had done AIIMS throughout ( MBBS, MD, Senior Registrar) Specialty: Vitreoretina, cataract, uveitis, ROP, micro-vitrectomy systems. Awards: best Junior Resident Award at Dr. Rajendra Prasad Centre for Ophthalmic Sciences, AIIMS, topped the competitive MD exam at RPC. Indian Journal of Ophthalmology Silver award 2016 for ... his study in posterior uveitis. Pioneer: Surgical innovations related to uveal melanoma, endo-illuminator assisted scleral buckling surgery for retinal detachment and has been instrumental in discovering new frontiers of treatment for serpiginious choroiditis. Publications: more than 60 national and international scientific research publications to his credit. Conferences: attended and presented his scientific research at more than 20 national and international conferences. Experience: Before Pristyn care, he had headed the retina division of Medanta Hospital.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Delhi Medical CouncilDMC/R/4624</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr">
         <is>
           <t>[]</t>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Delhi', 'Squint Treatment in Delhi', 'Lasik Eye Treatment in Delhi', 'Cataract Surgery  in Delhi']</t>
         </is>
       </c>
     </row>
@@ -16129,19 +16129,27 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr"/>
+          <t>Dr. Prerana Tripathi</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Dr. Prerana Tripathi is a Ophthalmologist/ Eye Surgeon in Malleswaram, Bangalore and has an experience of 15+ years as a medical practitioner. Dr. Prerana Tripathi practices at Pristyn Care in Malleswaram, Bangalore. She completed MBBS from Rajiv Gandhi University of Health Sciences in 2009, DO ... from Madurai Medical College in 2015 and DNB - Ophthalmology from National Board of Education, New Delhi in 2017. Some of the services provided by the doctor are: Nystagmus, Laser Procedures for Retina, Eye Infection, Stringy Eye Discharge and Entropion etc.</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Karnataka Medical Council 86755</t>
+        </is>
+      </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Rajiv Gandhi University of Health Sciences, Karnataka, 2009', 'Diploma in Ophthalmology, The Tamil Nadu Dr. MGR Medical University, Chennai, 2015', 'DNB, National Board of Examinations , 2018']</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Bangalore', 'Squint Treatment in Bangalore', 'Lasik Eye Treatment in Bangalore', 'Cataract Surgery  in Bangalore']</t>
         </is>
       </c>
     </row>
@@ -16233,19 +16241,27 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+          <t>Dr. Prerana Tripathi</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Dr. Prerana Tripathi is a Ophthalmologist/ Eye Surgeon in Malleswaram, Bangalore and has an experience of 15+ years as a medical practitioner. Dr. Prerana Tripathi practices at Pristyn Care in Malleswaram, Bangalore. She completed MBBS from Rajiv Gandhi University of Health Sciences in 2009, DO ... from Madurai Medical College in 2015 and DNB - Ophthalmology from National Board of Education, New Delhi in 2017. Some of the services provided by the doctor are: Nystagmus, Laser Procedures for Retina, Eye Infection, Stringy Eye Discharge and Entropion etc.</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Karnataka Medical Council 86755</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Rajiv Gandhi University of Health Sciences, Karnataka, 2009', 'Diploma in Ophthalmology, The Tamil Nadu Dr. MGR Medical University, Chennai, 2015', 'DNB, National Board of Examinations , 2018']</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Glaucoma Treatment in Bangalore', 'Squint Treatment in Bangalore', 'Lasik Eye Treatment in Bangalore', 'Cataract Surgery  in Bangalore']</t>
         </is>
       </c>
     </row>
@@ -16313,14 +16329,22 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+          <t>Dr. Priyanka</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Dr. Priyanka is an expert and experienced Gynaecologist and IVF Specialist with over 15 years of experience. She specializes in Obstetrics, Gynaecology, and Reproductive Medicine, with a keen focus on Assisted Reproductive Technologies (ART), gynecological endoscopy, and managing high-risk pregnancies. She completed her MBBS from ... Lady Hardinge Medical College, New Delhi (2010), MD in Obstetrics and Gynaecology from AIIMS, New Delhi (2015), DNB in 2016, and an FNB in Reproductive Medicine in 2023. She has also cleared Part 1 of the MRCOG and is registered with both the Delhi Medical Council and Rajasthan Medical Council. Over the years, Dr. Priyanka has gained valuable experience through her roles at leading institutions such as AIIMS, New Delhi and Nova IVF, Ahmedabad under the mentorship of Dr. Manish Banker. She has presented papers and posters at various national conferences including AOGD, NARCHI, GESICON, and ISAR, and has several research publications in reputed journals on IVF and obstetric outcomes. Her contributions to medical literature and conference presentations underscore her dedication to advancing the field of reproductive medicine. Now practicing at Pristyn Care Ferticity Hospital, Dr. Priyanka is committed to offering compassionate and personalized care to women facing fertility challenges and complex gynecological conditions. She is fluent in Hindi and English and has been appreciated for her approachable nature, dedication, and patient-first attitude. She strives to deliver state-of-the-art fertility and women's healthcare in a comfortable and supportive environment.</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Delhi Medical CouncilDMC/R/6810</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Univeristy of Delhi, 2010', 'MD -Obstetric &amp; Gynecologist, All India Institute of Medical Sciences, New Delhi, 2015']</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -16385,14 +16409,22 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr"/>
+          <t>Dr. Ila Gupta</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Dr. Ila Gupta is a highly respected name in the field of Reproductive Medicine and Assisted Reproductive Technologies (ART), with over 30 years of experience in infertility treatment. She was honored with the prestigious Dr. APJ Abdul Kalam Health Award 2023 in recognition of her ... exceptional contributions to reproductive health and fertility care. Based in Delhi, Dr. Gupta is widely regarded as one of the best IVF specialists in India, known for her dedication, clinical excellence, and patient-centric approach. Her core areas of expertise include Infertility, In Vitro Fertilization (IVF), Intra-Cytoplasmic Sperm Injection (ICSI), Donor Egg IVF, Surrogacy, and Endoscopy. Over the course of her distinguished career, she has successfully handled more than 5,500 complex cases, offering hope and joy to countless families. Her treatment protocols are individualized and evidence-based, designed to optimize fertility outcomes with compassion and precision. Dr. Ila Gupta has received advanced training from leading global institutes in Germany and France, and is a pioneer in introducing cutting-edge techniques such as Platelet-Rich Plasma (PRP) therapy and Preimplantation Genetic Screening/Diagnosis (PGS/PGD) in India. These innovations have significantly improved success rates—up to 78% in some cases—by ensuring higher chances of healthy, full-term pregnancies with genetically sound embryos. Dr. Gupta’s relentless pursuit of excellence, deep empathy for patients, and commitment to adopting the latest advancements make her a trusted leader in fertility care both in India and internationally</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Delhi Medical Council 4491</t>
+        </is>
+      </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Jiwaji University, 1992', 'MS - Obstetrics &amp; Gynaecology, Rani Durgawati Vishwa Vidyalaya, Jabalpur, 1997']</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -16409,14 +16441,22 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr"/>
+          <t>Dr. Priyanka</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Dr. Priyanka is an expert and experienced Gynaecologist and IVF Specialist with over 15 years of experience. She specializes in Obstetrics, Gynaecology, and Reproductive Medicine, with a keen focus on Assisted Reproductive Technologies (ART), gynecological endoscopy, and managing high-risk pregnancies. She completed her MBBS from ... Lady Hardinge Medical College, New Delhi (2010), MD in Obstetrics and Gynaecology from AIIMS, New Delhi (2015), DNB in 2016, and an FNB in Reproductive Medicine in 2023. She has also cleared Part 1 of the MRCOG and is registered with both the Delhi Medical Council and Rajasthan Medical Council. Over the years, Dr. Priyanka has gained valuable experience through her roles at leading institutions such as AIIMS, New Delhi and Nova IVF, Ahmedabad under the mentorship of Dr. Manish Banker. She has presented papers and posters at various national conferences including AOGD, NARCHI, GESICON, and ISAR, and has several research publications in reputed journals on IVF and obstetric outcomes. Her contributions to medical literature and conference presentations underscore her dedication to advancing the field of reproductive medicine. Now practicing at Pristyn Care Ferticity Hospital, Dr. Priyanka is committed to offering compassionate and personalized care to women facing fertility challenges and complex gynecological conditions. She is fluent in Hindi and English and has been appreciated for her approachable nature, dedication, and patient-first attitude. She strives to deliver state-of-the-art fertility and women's healthcare in a comfortable and supportive environment.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Delhi Medical CouncilDMC/R/6810</t>
+        </is>
+      </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Univeristy of Delhi, 2010', 'MD -Obstetric &amp; Gynecologist, All India Institute of Medical Sciences, New Delhi, 2015']</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -16433,27 +16473,19 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Dr. Samhitha Alukur</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>Dr. Samhitha Alukur is an expert and experienced Obstetrician, Gynaecologist with an experience of 10 years, and specializes in IVF and Gynaecology. She graduated and obtained her MBBS degree from Sri B M Patil Medical College (BLDE University) in 2014, and then her postgraduate DGO ... degree from Madras Medical College &amp; Rajiv gandhi General Hospital, Chennai in 2018.Currently, she is practicing at Pristyn Care Clinic in Hyderabad. She is fluent in Telugu, Hindi, English,Tamil, and Kanada and provides compassionate care for all her patients to ensure complete recovery. She has been commended by her patients for her caring nature, hard working attitude, and willingness to be there for them - any time of day and night.She provides treatment for the following - Vaginal Itching, Urinary Leakage, Warts, Urinary Infection, Ectopic Pregnancy, White Discharge, Vaginitis, Vulval Infection, Vaginismus, Vaginal Soreness, Vaginal Tear, Vaginal Pain, Vaginal Irritation, Vaginal Discharge, Vaginal Bleeding, Vaginal Burning, Uti, Spotting, Scanty Periods, Prolonged Period, Rectal Bleeding, Anc, Pregnancy, Pid, Post Menopausal Bleeding, Post Coital Bleeding, I/C, Periods Issue, Pcos, Nausea, Mullerian Uterus, Missed Period, Mirena Insertion, Low Back Pain, Itching, Itching While, Irregular Vaginal Bleeding, Irregular Periods &amp; Vaginal Discharge, Injection During Pregnancy, Infection, Heavy Bleeding, Dyspareunia, Facial Hair, Dysuria, Dryness, Dysmenorrhea, Dryness Itching, Derma, Delayed Periods, Decreased Mestrual Flow, Aub, Bleeding Issue, Amenorrhea, Vaginal Cyst, Abdomen Pain, Irregular Periods, Pco, Vaginal Infection, Fibroids, Ovarian Cyst,Cervical Inflammation, Pain During Intercourse, Urine Infection, Fibroids, Abnormal Uterine Bleeding,Urinary Problems Treatments, Pap Smear Problems, Vaginal Cyst Treatment, Vaginal Dryness, Abnormal Vaginal Discharge, Vaginal Tightening, Revirginization, Lesions On Labia, Vaginal Tightnening, Laser Vaginal Tightening, Ivf, Female Infertility, Male Infertilitym and other conditions. She is registered in the Indian Medical Registry with the license number TSMC/FMR/19132. She strives to provide advanced medical care in a comfortable and holistic environment for all patients coming to her for treatment.</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>Tamil Nadu Medical CouncilTSMC/FMR/19132</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>['MBBS, Sri B M Patil Medical College (BLDE University), 2014', 'DGO, Madras Medical College &amp; Rajiv gandhi General Hospital, Chennai, 2018', 'DNB, Apollo Hospital, Chennai, 2020']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>['Hysterectomy Treatment in Hyderabad', 'Ovarian Cyst Treatment in Hyderabad', 'Abortion Treatment in Hyderabad', 'Hymenoplasty Treatment in Hyderabad']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16489,19 +16521,11 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Dr. Mohit Bhandari</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>Dr. Mohit Bhandari is an eminent Bariatric, Metabolic and Robotic Surgeon and also founder and director at Mohak Bariatrics &amp; Robotics. Dr. Mohit Bhandari was one of the first to perform robotic bariatric surgery in India. He is also the first in India to perform ... Single anastomosis duodenal-Ileal Switch. Dr. Bhandari is also the youngest surgeon to perform 7000+ bariatric surgeries. Dr. Bhandari entered the Limca Book of Records in 2015 by performing 25 bariatric surgeries in an 11-hour period, performing the feat with the help of a 40 person team. He is the youngest and most experienced bariatric surgeon in the Asia Pacific who has performed 15000+ bariatric surgeries. 2019 is the year marked with a lot of personal and professional achievements. By performing 53 surgeries in just 13 hours and 20 minutes, he has registered his name in Guinness Book of World Records and World Book of Records.</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>Haryana Medical Council 25032</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr"/>
+      <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
           <t>[]</t>
@@ -16585,27 +16609,19 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Dr. Sanjeev Gupta</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>Dr. Sanjeev Gupta is an expert and experienced General Surgeon, Laparoscopic Surgeon and Proctologist with an experience of 25 years, and specializes in Proctology, Urology, and Laparoscopy. He graduated and obtained his MBBS degree from Meerut University in 1997, and then his postgraduate MS degree ... from D.D.U Gorakhpur University in 2008.Currently, he is practicing at Pristyn Care Clinic in Delhi. He is fluent in English,Hindi and provides compassionate care for all his patients to ensure complete recovery. He has been commended by his patients for his caring nature, hard working attitude, and willingness to be there for them - any time of day and night.He provides treatment for the following - Piles, Fissure, Fistula, Abscess,Pilonidal Sinus, Anal Warts, Urethral Stricture, Erectile Dysfunction, Urinary Tract Infection, Urinary Incontinence, Balnitis, Phimosis, Paraphimosis, Sebaceous Cyst, Umbilical Hernia, Inguinal Hernia, Incisional Hernia, Hiatus, Gallstones, Stent Removal, Cyst Removal, Hydrocele, and other conditions. He is registered in the Indian Medical Registry with the license number 40077. He strives to provide advanced medical care in a comfortable and holistic environment for all patients coming to him for treatment.</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>Delhi Medical Council 40077</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>['MBBS, JIWAJI University Gwalior,, 1997', 'MS - General Surgery, University of Delhi, New Delhi, 2008']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>['Breast Lump Treatment in Delhi', 'Laser Circumcision in Delhi', 'Hydrocele Treatment in Delhi', 'Gallstones Treatment in Delhi', 'Hernia Treatment in Delhi', 'Anal Fistula Treatment in Delhi', 'Piles Treatment in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16649,19 +16665,27 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
+          <t>Dr. Chandni Jain</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Dr. Chandni Jain Gupta is an experienced Dermatologist currently associated with Pristyn Care Elantis, Lajpat Nagar. She has 8 years of experience in Dermatology and worked as an expert in different cities of India. Doctor Chandni Jain Gupta has contributed to handling numerous complex medical cases ... in several hospitals. She is known for her attention to accurate diagnosis and for treating patients empathetically. The specialty interests of Dr. Chandni are the treatment of acne, scars, pigmentation, botox, and thread lifts. She is also an active member of the Indian Association of Dermatology, Venereology and Leprosy (IADVL) and the International Society of Dermatology (ISD). Dr. Chandni Jain Gupta did her MD in Dermatology, Venereology and Leprosy from Ram Manohar Lohia Avadh University. She also completed a Fellowship in Aesthetic Surgery from Milan. She has also participated in research work and various workshops under the Dermatology department and published many papers.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Delhi Medical Council 104999</t>
+        </is>
+      </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Ram Manohar Lohia Avadh University, Faizabad, 2017', 'MD - Dermatology , Venereology &amp; Leprosy, Era University, Luckow, 2020']</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Hair Fall Prp Treatment in Delhi', 'Hair Transplant Treatment in Delhi']</t>
         </is>
       </c>
     </row>
@@ -16697,27 +16721,19 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Dr. Komal</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Dr. Komal Grover is an expert and experienced Cosmetologist and Aesthetic Physician with over 8 years of experience in aesthetic medicine, facial rejuvenation, trichology, and non-surgical cosmetic procedures. She holds a Bachelor of Dental Surgery degree and has pursued specialized certifications and fellowships in Cosmetic ... Dermatology, Clinical Cosmetology, Trichology, and Facial Aesthetics from prestigious institutions such as the International Academy of Cosmetology (Ukraine), the Indian Institute of Aesthetic Medicine, and the University of Messina, Europe. Currently associated with Pristyn Care, she brings world-class aesthetic expertise to patients seeking advanced cosmetic and dermatologic care. Dr. Komal has previously served as the Head Aesthetic Physician at leading centers including Clinic Dermatech (Faridabad), Dadu Medical Centre (Delhi), and Cosmetica India. She has independently performed a wide range of aesthetic procedures including Botox, dermal fillers, thread lifts, chemical peels, PRP/GFC/exosome therapy for skin and hair, laser therapies (Diode, CO2, ND:YAG), and minor surgical procedures like mole and wart removal. She also has significant experience in skin boosters, weight loss therapies (Cryolipolysis, Endymed), IV drips for glow and metabolism, and customized skin care regimens. Dr. Komal has mentored national-level workshops and provided training to doctors and dermatologists across India, the UK, and Nepal. Fluent in Hindi, English, and Punjabi, Dr. Komal is highly regarded for her facial assessment skills, in-depth knowledge of skin anatomy, and excellent patient care. She is trained in managing Fitzpatrick Skin Types I to VI and has successfully treated diverse patient profiles across India and internationally. At Pristyn Care, Dr. Komal Grover offers cutting-edge aesthetic treatments with a focus on safety, natural results, and holistic beauty, earning the trust of patients looking for advanced, result-oriented cosmetic care.</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>Maharashtra State Dental CouncilA-47037</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>['BDS, Maharashtra University of Health Sciences, Nashik, 2019']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>['Hair Fall Prp Treatment in Delhi', 'Hair Transplant Treatment in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16761,27 +16777,19 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Dr. Surajsinh Chauhan</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>Dr. Surajsinh Amarsinh Chauhan is an expert and experienced Aesthetics and Plastic Surgeon with an experience of 13+ years, and specializes in Aesthetics. He graduated and obtained his MBBS degree from VIMS , Ahmednagar in 2006, and then his postgraduate MS degree from TNMC &amp; ... BYL Nair Hospital, Mumbai in 2013.Currently, he is practicing at Pristyn Care Clinic in Pune. He is fluent in English, Hindi and Marathi and provides compassionate care for all his patients to ensure complete recovery. He has been commended by his patients for his caring nature, hard working attitude, and willingness to be there for them - any time of day and night. He provides treatment for the following -Mole Removal, Gynecomastia, Lipoma, Skin Grafting, Sebaceous Cyst, Hair Reduction, Beard Transplant, Breast, Breast Augmentation, Breast Lift, Breast Reduction, Axillary Breast, Breast Lump, Breast Augmentation, and Breast Cancer, and other conditions. He is registered in the Indian Medical Registry with the license number 2012061865. He strives to provide advanced medical care in a comfortable and holistic environment for all patients coming to him for treatment.</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>Maharashtra Medical Council 2012061865</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr"/>
+      <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>['MBBS, VIMS , Ahmednagar, 2012', 'MS - General Surgery, TNMC &amp; BYL Nair Hospital, Mumbai, 2016', 'MCh - Plastic Surgery, Government Medical College, Nagpur, 2019']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>['Tummy Tuck Treatment in Pune', 'Axillary Breast Treatment in Pune', 'Breast Lump Treatment in Pune', 'Breast Augmentation Treatment in Pune', 'Breast Reduction Treatment in Pune', 'Lipoma Treatment in Pune', 'Hair Transplant Treatment in Pune', 'Breast Lift Treatment in Pune', 'Gynecomastia Treatment in Pune']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16793,27 +16801,19 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Dr. Komal</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>Dr. Komal Grover is an expert and experienced Cosmetologist and Aesthetic Physician with over 8 years of experience in aesthetic medicine, facial rejuvenation, trichology, and non-surgical cosmetic procedures. She holds a Bachelor of Dental Surgery degree and has pursued specialized certifications and fellowships in Cosmetic ... Dermatology, Clinical Cosmetology, Trichology, and Facial Aesthetics from prestigious institutions such as the International Academy of Cosmetology (Ukraine), the Indian Institute of Aesthetic Medicine, and the University of Messina, Europe. Currently associated with Pristyn Care, she brings world-class aesthetic expertise to patients seeking advanced cosmetic and dermatologic care. Dr. Komal has previously served as the Head Aesthetic Physician at leading centers including Clinic Dermatech (Faridabad), Dadu Medical Centre (Delhi), and Cosmetica India. She has independently performed a wide range of aesthetic procedures including Botox, dermal fillers, thread lifts, chemical peels, PRP/GFC/exosome therapy for skin and hair, laser therapies (Diode, CO2, ND:YAG), and minor surgical procedures like mole and wart removal. She also has significant experience in skin boosters, weight loss therapies (Cryolipolysis, Endymed), IV drips for glow and metabolism, and customized skin care regimens. Dr. Komal has mentored national-level workshops and provided training to doctors and dermatologists across India, the UK, and Nepal. Fluent in Hindi, English, and Punjabi, Dr. Komal is highly regarded for her facial assessment skills, in-depth knowledge of skin anatomy, and excellent patient care. She is trained in managing Fitzpatrick Skin Types I to VI and has successfully treated diverse patient profiles across India and internationally. At Pristyn Care, Dr. Komal Grover offers cutting-edge aesthetic treatments with a focus on safety, natural results, and holistic beauty, earning the trust of patients looking for advanced, result-oriented cosmetic care.</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>Maharashtra State Dental CouncilA-47037</t>
-        </is>
-      </c>
+          <t>301 Moved Permanently</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr"/>
+      <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>['BDS, Maharashtra University of Health Sciences, Nashik, 2019']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>['Hair Fall Prp Treatment in Delhi', 'Hair Transplant Treatment in Delhi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -16825,19 +16825,27 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>301 Moved Permanently</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+          <t>Dr. Chandni Jain</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Dr. Chandni Jain Gupta is an experienced Dermatologist currently associated with Pristyn Care Elantis, Lajpat Nagar. She has 8 years of experience in Dermatology and worked as an expert in different cities of India. Doctor Chandni Jain Gupta has contributed to handling numerous complex medical cases ... in several hospitals. She is known for her attention to accurate diagnosis and for treating patients empathetically. The specialty interests of Dr. Chandni are the treatment of acne, scars, pigmentation, botox, and thread lifts. She is also an active member of the Indian Association of Dermatology, Venereology and Leprosy (IADVL) and the International Society of Dermatology (ISD). Dr. Chandni Jain Gupta did her MD in Dermatology, Venereology and Leprosy from Ram Manohar Lohia Avadh University. She also completed a Fellowship in Aesthetic Surgery from Milan. She has also participated in research work and various workshops under the Dermatology department and published many papers.</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Delhi Medical Council 104999</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['MBBS, Ram Manohar Lohia Avadh University, Faizabad, 2017', 'MD - Dermatology , Venereology &amp; Leprosy, Era University, Luckow, 2020']</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Hair Fall Prp Treatment in Delhi', 'Hair Transplant Treatment in Delhi']</t>
         </is>
       </c>
     </row>
